--- a/TraderTesting.xlsx
+++ b/TraderTesting.xlsx
@@ -54,15 +54,6 @@
     <t>Register with correct values.</t>
   </si>
   <si>
-    <t>Email verification is sent.</t>
-  </si>
-  <si>
-    <t>Email Verification.</t>
-  </si>
-  <si>
-    <t>Activates the user and user can login.</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>Logged out and redirects to home page.</t>
+  </si>
+  <si>
+    <t>Email  is sent.</t>
+  </si>
+  <si>
+    <t>Email activated by admin</t>
+  </si>
+  <si>
+    <t>Activates the trader and trader can login.</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -674,13 +674,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -721,13 +721,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>7</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
